--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/temp/shipments/c202.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/temp/shipments/c202.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="7">
   <si>
     <t>Index</t>
   </si>
